--- a/Folio (1).xlsx
+++ b/Folio (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CECBC88-4905-4692-BEDD-E305858AC73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3713E2B1-1C60-4F5B-9A4A-2DEE3FB10FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="20" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="527">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1667,6 +1667,9 @@
   </si>
   <si>
     <t>OVERSTAY_REPORT_SUBMISSION_ID</t>
+  </si>
+  <si>
+    <t>Ok_BTN</t>
   </si>
 </sst>
 </file>
@@ -9323,7 +9326,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F26082-EA83-4A35-BBD3-990DF7F89614}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -9342,11 +9345,12 @@
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="118.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="17.1796875" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="42" customWidth="1"/>
+    <col min="13" max="13" width="118.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.1796875" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -9381,16 +9385,19 @@
         <v>430</v>
       </c>
       <c r="L1" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="M1" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="N1" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="44" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>27</v>
       </c>
@@ -9409,12 +9416,14 @@
       <c r="F2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="19"/>
+      <c r="G2" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="H2" s="19" t="s">
         <v>28</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J2" s="19" t="s">
         <v>100</v>
@@ -9422,15 +9431,18 @@
       <c r="K2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="49" t="s">
         <v>433</v>
       </c>
-      <c r="M2" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="N2" s="49"/>
-    </row>
-    <row r="3" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="49"/>
+    </row>
+    <row r="3" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>27</v>
       </c>
@@ -9449,7 +9461,9 @@
       <c r="F3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="H3" s="19" t="s">
         <v>28</v>
       </c>
@@ -9462,13 +9476,16 @@
       <c r="K3" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="49" t="s">
         <v>434</v>
       </c>
-      <c r="M3" s="49"/>
       <c r="N3" s="49"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O3" s="49"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
         <v>120</v>
       </c>
@@ -9500,9 +9517,12 @@
       <c r="K4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="42"/>
-    </row>
-    <row r="5" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L4" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="42"/>
+    </row>
+    <row r="5" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>35</v>
       </c>
@@ -9536,11 +9556,14 @@
       <c r="K5" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="51"/>
+      <c r="L5" s="51" t="s">
+        <v>28</v>
+      </c>
       <c r="M5" s="51"/>
       <c r="N5" s="51"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O5" s="51"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="42"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -9550,9 +9573,9 @@
       <c r="H6" s="42"/>
       <c r="I6" s="29"/>
       <c r="J6" s="42"/>
-      <c r="L6" s="42"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="42"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
@@ -9562,9 +9585,9 @@
       <c r="H7" s="42"/>
       <c r="I7" s="29"/>
       <c r="J7" s="42"/>
-      <c r="L7" s="42"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M7" s="42"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="42"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
@@ -9574,9 +9597,9 @@
       <c r="H8" s="42"/>
       <c r="I8" s="29"/>
       <c r="J8" s="42"/>
-      <c r="L8" s="42"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M8" s="42"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="42"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -9586,7 +9609,7 @@
       <c r="H9" s="42"/>
       <c r="I9" s="29"/>
       <c r="J9" s="42"/>
-      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12973,6 +12996,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -12980,15 +13012,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13011,6 +13034,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -13018,12 +13049,4 @@
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Folio (1).xlsx
+++ b/Folio (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3713E2B1-1C60-4F5B-9A4A-2DEE3FB10FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EDA772-9959-4F0C-807F-FC3DDC9C9106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="20" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1669,7 +1669,7 @@
     <t>OVERSTAY_REPORT_SUBMISSION_ID</t>
   </si>
   <si>
-    <t>Ok_BTN</t>
+    <t>OK_BTN</t>
   </si>
 </sst>
 </file>
@@ -9329,7 +9329,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12779,6 +12779,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -12995,26 +13014,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13031,22 +13049,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Folio (1).xlsx
+++ b/Folio (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EDA772-9959-4F0C-807F-FC3DDC9C9106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087388B5-0B14-4EC1-A85E-7A83AEE8A25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="20" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9328,8 +9328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F26082-EA83-4A35-BBD3-990DF7F89614}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9408,7 +9408,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="E2" s="50" t="s">
         <v>28</v>
@@ -12789,15 +12789,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -13014,6 +13005,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
@@ -13025,14 +13025,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13049,4 +13041,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Folio (1).xlsx
+++ b/Folio (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087388B5-0B14-4EC1-A85E-7A83AEE8A25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C25F56-D3E9-4663-9209-BA1BEE97231E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="20" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -9328,8 +9328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F26082-EA83-4A35-BBD3-990DF7F89614}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12289,29 +12289,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9D3CD3-B1E4-4B19-8BFF-5F4C690A39C5}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.453125" style="42" customWidth="1"/>
-    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="8.81640625" style="31"/>
-    <col min="23" max="25" width="8.54296875" style="42"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" style="42" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.81640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.90625" style="31" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19" style="31" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1796875" style="31" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.90625" style="42" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.90625" style="42" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.90625" style="42" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="19" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -12595,7 +12609,7 @@
         <v>170</v>
       </c>
       <c r="AD4" s="50" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="AE4" s="50" t="s">
         <v>170</v>
@@ -12779,13 +12793,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13006,20 +13019,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13044,9 +13056,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Folio (1).xlsx
+++ b/Folio (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C25F56-D3E9-4663-9209-BA1BEE97231E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80C5105-9E27-4E42-BBE5-13AF5ADD6262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="528">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1670,6 +1670,9 @@
   </si>
   <si>
     <t>OK_BTN</t>
+  </si>
+  <si>
+    <t>DOWNLOAD_CLICK</t>
   </si>
 </sst>
 </file>
@@ -2951,22 +2954,54 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
-  <dimension ref="A1:AZ10"/>
+  <dimension ref="A1:BA10"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="18.81640625" customWidth="1"/>
-    <col min="10" max="10" width="20.1796875" customWidth="1"/>
-    <col min="11" max="11" width="18.81640625" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="39.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.81640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="110.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -3069,19 +3104,21 @@
       <c r="AH1" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="AI1" s="43" t="s">
+      <c r="AI1" s="51" t="s">
+        <v>527</v>
+      </c>
+      <c r="AJ1" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="AJ1" s="43" t="s">
+      <c r="AK1" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="AK1" s="43" t="s">
+      <c r="AL1" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="AL1" s="43" t="s">
+      <c r="AM1" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="AM1" s="42"/>
       <c r="AN1" s="42"/>
       <c r="AO1" s="42"/>
       <c r="AP1" s="42"/>
@@ -3095,8 +3132,9 @@
       <c r="AX1" s="42"/>
       <c r="AY1" s="42"/>
       <c r="AZ1" s="42"/>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA1" s="42"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2" s="50" t="s">
         <v>27</v>
       </c>
@@ -3187,13 +3225,15 @@
       <c r="AF2" s="42"/>
       <c r="AG2" s="42"/>
       <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
+      <c r="AI2" s="34" t="s">
+        <v>28</v>
+      </c>
       <c r="AJ2" s="42"/>
       <c r="AK2" s="42"/>
-      <c r="AL2" s="42" t="s">
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="AM2" s="42"/>
       <c r="AN2" s="42"/>
       <c r="AO2" s="42"/>
       <c r="AP2" s="42"/>
@@ -3207,8 +3247,9 @@
       <c r="AX2" s="42"/>
       <c r="AY2" s="42"/>
       <c r="AZ2" s="42"/>
-    </row>
-    <row r="3" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BA2" s="42"/>
+    </row>
+    <row r="3" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="50" t="s">
         <v>27</v>
       </c>
@@ -3283,7 +3324,9 @@
       <c r="AF3" s="50"/>
       <c r="AG3" s="50"/>
       <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
+      <c r="AI3" s="34" t="s">
+        <v>28</v>
+      </c>
       <c r="AJ3" s="50"/>
       <c r="AK3" s="50"/>
       <c r="AL3" s="50"/>
@@ -3301,8 +3344,9 @@
       <c r="AX3" s="50"/>
       <c r="AY3" s="50"/>
       <c r="AZ3" s="50"/>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA3" s="50"/>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4" s="50" t="s">
         <v>27</v>
       </c>
@@ -3399,7 +3443,7 @@
       <c r="AH4" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="AI4" s="42" t="s">
+      <c r="AI4" s="34" t="s">
         <v>28</v>
       </c>
       <c r="AJ4" s="42" t="s">
@@ -3408,7 +3452,9 @@
       <c r="AK4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AL4" s="42"/>
+      <c r="AL4" s="42" t="s">
+        <v>28</v>
+      </c>
       <c r="AM4" s="42"/>
       <c r="AN4" s="42"/>
       <c r="AO4" s="42"/>
@@ -3423,8 +3469,9 @@
       <c r="AX4" s="42"/>
       <c r="AY4" s="42"/>
       <c r="AZ4" s="42"/>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA4" s="42"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>27</v>
       </c>
@@ -3521,7 +3568,7 @@
       <c r="AH5" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="AI5" s="42" t="s">
+      <c r="AI5" s="34" t="s">
         <v>28</v>
       </c>
       <c r="AJ5" s="42" t="s">
@@ -3530,7 +3577,9 @@
       <c r="AK5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AL5" s="42"/>
+      <c r="AL5" s="42" t="s">
+        <v>28</v>
+      </c>
       <c r="AM5" s="42"/>
       <c r="AN5" s="42"/>
       <c r="AO5" s="42"/>
@@ -3545,8 +3594,9 @@
       <c r="AX5" s="42"/>
       <c r="AY5" s="42"/>
       <c r="AZ5" s="42"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA5" s="42"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6" s="50" t="s">
         <v>27</v>
       </c>
@@ -3643,7 +3693,7 @@
       <c r="AH6" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="AI6" s="42" t="s">
+      <c r="AI6" s="34" t="s">
         <v>28</v>
       </c>
       <c r="AJ6" s="42" t="s">
@@ -3652,7 +3702,9 @@
       <c r="AK6" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AL6" s="42"/>
+      <c r="AL6" s="42" t="s">
+        <v>28</v>
+      </c>
       <c r="AM6" s="42"/>
       <c r="AN6" s="42"/>
       <c r="AO6" s="42"/>
@@ -3667,8 +3719,9 @@
       <c r="AX6" s="42"/>
       <c r="AY6" s="42"/>
       <c r="AZ6" s="42"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA6" s="42"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="s">
         <v>27</v>
       </c>
@@ -3765,7 +3818,7 @@
       <c r="AH7" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="AI7" s="42" t="s">
+      <c r="AI7" s="34" t="s">
         <v>28</v>
       </c>
       <c r="AJ7" s="42" t="s">
@@ -3774,7 +3827,9 @@
       <c r="AK7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AL7" s="42"/>
+      <c r="AL7" s="42" t="s">
+        <v>28</v>
+      </c>
       <c r="AM7" s="42"/>
       <c r="AN7" s="42"/>
       <c r="AO7" s="42"/>
@@ -3789,8 +3844,9 @@
       <c r="AX7" s="42"/>
       <c r="AY7" s="42"/>
       <c r="AZ7" s="42"/>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA7" s="42"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8" s="50" t="s">
         <v>27</v>
       </c>
@@ -3889,8 +3945,8 @@
       <c r="AH8" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="AI8" s="42" t="s">
-        <v>100</v>
+      <c r="AI8" s="34" t="s">
+        <v>28</v>
       </c>
       <c r="AJ8" s="42" t="s">
         <v>100</v>
@@ -3898,7 +3954,9 @@
       <c r="AK8" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="AL8" s="42"/>
+      <c r="AL8" s="42" t="s">
+        <v>100</v>
+      </c>
       <c r="AM8" s="42"/>
       <c r="AN8" s="42"/>
       <c r="AO8" s="42"/>
@@ -3913,8 +3971,9 @@
       <c r="AX8" s="42"/>
       <c r="AY8" s="42"/>
       <c r="AZ8" s="42"/>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA8" s="42"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9" s="50" t="s">
         <v>27</v>
       </c>
@@ -4011,7 +4070,7 @@
       <c r="AH9" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="AI9" s="42" t="s">
+      <c r="AI9" s="34" t="s">
         <v>28</v>
       </c>
       <c r="AJ9" s="42" t="s">
@@ -4020,7 +4079,9 @@
       <c r="AK9" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AL9" s="42"/>
+      <c r="AL9" s="42" t="s">
+        <v>28</v>
+      </c>
       <c r="AM9" s="42"/>
       <c r="AN9" s="42"/>
       <c r="AO9" s="42"/>
@@ -4035,8 +4096,9 @@
       <c r="AX9" s="42"/>
       <c r="AY9" s="42"/>
       <c r="AZ9" s="42"/>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA9" s="42"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10" s="42"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
@@ -4071,7 +4133,6 @@
       <c r="AF10" s="42"/>
       <c r="AG10" s="42"/>
       <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
       <c r="AJ10" s="42"/>
       <c r="AK10" s="42"/>
       <c r="AL10" s="42"/>
@@ -4089,6 +4150,7 @@
       <c r="AX10" s="42"/>
       <c r="AY10" s="42"/>
       <c r="AZ10" s="42"/>
+      <c r="BA10" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12289,8 +12351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9D3CD3-B1E4-4B19-8BFF-5F4C690A39C5}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12793,15 +12855,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -13018,6 +13071,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -13029,14 +13091,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13055,6 +13109,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
